--- a/rai_app/import_file/import.xlsx
+++ b/rai_app/import_file/import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\dis22-2022\rai_app\import_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Daten\TH\dis22\dis22-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B975FE8-2A07-49AE-ABC0-FB530C5A74D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4D0B7C-8CB3-4BEA-8926-A755660C79B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="2100" windowWidth="21060" windowHeight="13365" xr2:uid="{A119C5FC-E6A4-924F-844E-425CB6FB6B48}"/>
+    <workbookView xWindow="28680" yWindow="-6390" windowWidth="16440" windowHeight="28320" xr2:uid="{A119C5FC-E6A4-924F-844E-425CB6FB6B48}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="98">
   <si>
     <t>Christian</t>
   </si>
@@ -48,6 +49,54 @@
     <t>Baldwin</t>
   </si>
   <si>
+    <t>Gil</t>
+  </si>
+  <si>
+    <t>Ofarim</t>
+  </si>
+  <si>
+    <t>Armin</t>
+  </si>
+  <si>
+    <t>Laschet</t>
+  </si>
+  <si>
+    <t>Olaf</t>
+  </si>
+  <si>
+    <t>Scholz</t>
+  </si>
+  <si>
+    <t>Annalena</t>
+  </si>
+  <si>
+    <t>Baerbock</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Singer</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Ballack</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Gottschalk</t>
+  </si>
+  <si>
+    <t>Jerome</t>
+  </si>
+  <si>
+    <t>Boateng</t>
+  </si>
+  <si>
     <t>Vorname</t>
   </si>
   <si>
@@ -58,6 +107,228 @@
   </si>
   <si>
     <t>Platz</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Biden</t>
+  </si>
+  <si>
+    <t>Boris</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Jong-un</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Müller</t>
+  </si>
+  <si>
+    <t>Wendler</t>
+  </si>
+  <si>
+    <t>Kamala</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>Attila</t>
+  </si>
+  <si>
+    <t>Hildmann</t>
+  </si>
+  <si>
+    <t>Claudia</t>
+  </si>
+  <si>
+    <t>Obert</t>
+  </si>
+  <si>
+    <t>Sonja</t>
+  </si>
+  <si>
+    <t>Kirchberger</t>
+  </si>
+  <si>
+    <t>Melania</t>
+  </si>
+  <si>
+    <t>Trump</t>
+  </si>
+  <si>
+    <t>Greta</t>
+  </si>
+  <si>
+    <t>Thunberg</t>
+  </si>
+  <si>
+    <t>Evelyn</t>
+  </si>
+  <si>
+    <t>Burdecki</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Merton</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Ortloff</t>
+  </si>
+  <si>
+    <t>Bastian</t>
+  </si>
+  <si>
+    <t>Yottta</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>Mockridge</t>
+  </si>
+  <si>
+    <t>Leila</t>
+  </si>
+  <si>
+    <t>Lowfire</t>
+  </si>
+  <si>
+    <t>Töpperwien</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Saskia</t>
+  </si>
+  <si>
+    <t>Esken</t>
+  </si>
+  <si>
+    <t>Doreen</t>
+  </si>
+  <si>
+    <t>Dietel</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
+    <t>Shirin</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Kader</t>
+  </si>
+  <si>
+    <t>Loth</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Meyer-Landrut</t>
+  </si>
+  <si>
+    <t>Mireille</t>
+  </si>
+  <si>
+    <t>Mathieu</t>
+  </si>
+  <si>
+    <t>Ousmane</t>
+  </si>
+  <si>
+    <t>Dembele</t>
+  </si>
+  <si>
+    <t>Kraus</t>
+  </si>
+  <si>
+    <t>Weidel</t>
+  </si>
+  <si>
+    <t>Meghan</t>
+  </si>
+  <si>
+    <t>Markle</t>
+  </si>
+  <si>
+    <t>Florian</t>
+  </si>
+  <si>
+    <t>Weiss</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Küblböck</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Ullrich</t>
+  </si>
+  <si>
+    <t>Hans-Georg</t>
+  </si>
+  <si>
+    <t>Maaßen</t>
+  </si>
+  <si>
+    <t>Demi</t>
+  </si>
+  <si>
+    <t>Lovato</t>
+  </si>
+  <si>
+    <t>Mesut</t>
+  </si>
+  <si>
+    <t>Özil</t>
+  </si>
+  <si>
+    <t>Horst</t>
+  </si>
+  <si>
+    <t>Seehofer</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>York</t>
+  </si>
+  <si>
+    <t>Sylvester</t>
+  </si>
+  <si>
+    <t>Stallone</t>
+  </si>
+  <si>
+    <t>Ella</t>
+  </si>
+  <si>
+    <t>Endlich</t>
   </si>
 </sst>
 </file>
@@ -409,54 +680,726 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F0A538-633D-8346-99C5-2554F6C2FD67}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>2021</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3">
         <v>2021</v>
       </c>
-      <c r="D3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51">
+        <v>2017</v>
       </c>
     </row>
   </sheetData>
